--- a/Indicators/Indicators_Process_B_7_5/files/record.xlsx
+++ b/Indicators/Indicators_Process_B_7_5/files/record.xlsx
@@ -14,7 +14,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
+  <si>
+    <t>Количество выпущенной продукции по годам в тоннах</t>
+  </si>
   <si>
     <t>Уровень неисправности оборудования по годам</t>
   </si>
@@ -25,6 +28,18 @@
     <t>Уровень техотходов по годам в %</t>
   </si>
   <si>
+    <t>Количество выпущенной продукции по годам в шт.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Уровень отклонений продукции Котк по годам в %</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Уровень простоя Кпр кол по годам в %</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Уровень простоя Кпр кач по годам в %</t>
+  </si>
+  <si>
     <t>Уровень неисправности оборудования по полугодиям</t>
   </si>
   <si>
@@ -32,6 +47,15 @@
   </si>
   <si>
     <t>Уровень техотходов по полугодиям в %</t>
+  </si>
+  <si>
+    <t>Количество выпущенной продукции по полугодиям в тоннах</t>
+  </si>
+  <si>
+    <t>Количество выпущенной продукции по полугодиям в шт.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Уровень отклонений продукции Котк по полугодиям в %</t>
   </si>
 </sst>
 </file>
@@ -389,13 +413,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:W17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:23">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -412,294 +436,642 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="K1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" s="1">
         <v>2005</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
       <c r="C2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" s="1">
         <v>2006</v>
       </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
       <c r="C3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
       <c r="A4" s="1">
         <v>2007</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>0.8</v>
       </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
       <c r="A5" s="1">
         <v>2008</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
         <v>2.3</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:23">
       <c r="A6" s="1">
         <v>2009</v>
       </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
         <v>2.1</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:23">
       <c r="A7" s="1">
         <v>2010</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>1817.007</v>
       </c>
       <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
         <v>0.05</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="L7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
       <c r="A8" s="1">
         <v>2011</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>2319.412</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>1.72</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
       <c r="A9" s="1">
         <v>2012</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>1793.778</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
         <v>1.38</v>
       </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
         <v>1.68</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="P9">
+        <v>837.1180000000001</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
       <c r="A10" s="1">
         <v>2013</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>1942.546</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
         <v>1</v>
       </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
+      <c r="J10">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
         <v>1.1</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="P10">
+        <v>866.8810000000001</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
       <c r="A11" s="1">
         <v>2014</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>1957.01</v>
       </c>
       <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
         <v>0.09</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>0.6</v>
       </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
         <v>0.14</v>
       </c>
-      <c r="G11">
+      <c r="O11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="P11">
+        <v>1000.937</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
       <c r="A12" s="1">
         <v>2015</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>1590.887</v>
       </c>
       <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
         <v>0.006</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>0.67</v>
       </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
         <v>0.026</v>
       </c>
-      <c r="G12">
+      <c r="O12">
         <v>0.76</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="P12">
+        <v>766.3680000000001</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
       <c r="A13" s="1">
         <v>2016</v>
       </c>
       <c r="B13">
+        <v>1286.476</v>
+      </c>
+      <c r="C13">
         <v>0.004</v>
       </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
       <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
         <v>0.72</v>
       </c>
-      <c r="E13">
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
         <v>0.008</v>
       </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
         <v>0.59</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="P13">
+        <v>706.3810000000001</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
       <c r="A14" s="1">
         <v>2017</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>1449.358</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
         <v>0.68</v>
       </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
         <v>0.71</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="P14">
+        <v>753.518</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
       <c r="A15" s="1">
         <v>2018</v>
       </c>
       <c r="B15">
+        <v>1248.46</v>
+      </c>
+      <c r="C15">
         <v>0.659</v>
       </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
       <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
         <v>0.6899999999999999</v>
       </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
         <v>0.68</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="P15">
+        <v>711.4589999999999</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
       <c r="A16" s="1">
         <v>2019</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>1254.366</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
         <v>0.75</v>
       </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
       <c r="F16">
-        <v>0</v>
+        <v>11392</v>
       </c>
       <c r="G16">
+        <v>11279</v>
+      </c>
+      <c r="H16">
+        <v>792.302</v>
+      </c>
+      <c r="I16">
+        <v>97.35700000000001</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
         <v>0.84</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="P16">
+        <v>681.2860000000001</v>
+      </c>
+      <c r="Q16">
+        <v>3006</v>
+      </c>
+      <c r="R16">
+        <v>2967</v>
+      </c>
+      <c r="S16">
+        <v>427.818</v>
+      </c>
+      <c r="T16">
+        <v>50.547</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23">
       <c r="A17" s="1">
         <v>2020</v>
       </c>
+      <c r="B17">
+        <v>1459.878</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
       <c r="E17">
-        <v>0</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>2882</v>
       </c>
       <c r="G17">
+        <v>2839</v>
+      </c>
+      <c r="H17">
+        <v>1022.284</v>
+      </c>
+      <c r="I17">
+        <v>194.58</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
         <v>0.6</v>
+      </c>
+      <c r="P17">
+        <v>660.424</v>
+      </c>
+      <c r="Q17">
+        <v>2611</v>
+      </c>
+      <c r="R17">
+        <v>2586</v>
+      </c>
+      <c r="S17">
+        <v>473.535</v>
+      </c>
+      <c r="T17">
+        <v>115.529</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Indicators/Indicators_Process_B_7_5/files/record.xlsx
+++ b/Indicators/Indicators_Process_B_7_5/files/record.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
-  <si>
-    <t>Количество выпущенной продукции по годам в тоннах</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+  <si>
+    <t>Количество выпущенной продукции по годам в т.</t>
   </si>
   <si>
     <t>Уровень неисправности оборудования по годам</t>
@@ -28,7 +28,16 @@
     <t>Уровень техотходов по годам в %</t>
   </si>
   <si>
-    <t>Количество выпущенной продукции по годам в шт.</t>
+    <t>Количество выпущенных муфт по годам в шт.</t>
+  </si>
+  <si>
+    <t>Количество выпущенных комплектов по годам в шт.</t>
+  </si>
+  <si>
+    <t>Количество п/б ленты(нарезка) по годам в т.</t>
+  </si>
+  <si>
+    <t>Количество ПВХ липкой(нарезка) по годам в тоннах</t>
   </si>
   <si>
     <t xml:space="preserve"> Уровень отклонений продукции Котк по годам в %</t>
@@ -52,10 +61,25 @@
     <t>Количество выпущенной продукции по полугодиям в тоннах</t>
   </si>
   <si>
-    <t>Количество выпущенной продукции по полугодиям в шт.</t>
+    <t>Количество выпущенных муфт по полугодиям в шт.</t>
+  </si>
+  <si>
+    <t>Количество комплектов по полугодиям в шт.</t>
+  </si>
+  <si>
+    <t>Количество п/б ленты(нарезка) по полугодиям в т.</t>
+  </si>
+  <si>
+    <t>Количество ПВХ липкой(нарезка) по полугодиям в т.</t>
   </si>
   <si>
     <t xml:space="preserve"> Уровень отклонений продукции Котк по полугодиям в %</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Уровень простоя Кпр кол по полугодиям в %</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Уровень простоя Кпр кач по полугодиям в %</t>
   </si>
 </sst>
 </file>
@@ -436,55 +460,55 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:23">
@@ -854,6 +878,9 @@
       <c r="E14">
         <v>0.68</v>
       </c>
+      <c r="G14">
+        <v>2532</v>
+      </c>
       <c r="J14">
         <v>0</v>
       </c>
@@ -900,6 +927,12 @@
       </c>
       <c r="E15">
         <v>0.6899999999999999</v>
+      </c>
+      <c r="G15">
+        <v>6502</v>
+      </c>
+      <c r="I15">
+        <v>22.926</v>
       </c>
       <c r="J15">
         <v>0</v>

--- a/Indicators/Indicators_Process_B_7_5/files/record.xlsx
+++ b/Indicators/Indicators_Process_B_7_5/files/record.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
-    <t>Количество выпущенной продукции по годам в т.</t>
+    <t>Количество выпущенной продукции по годам в тоннах</t>
   </si>
   <si>
     <t>Уровень неисправности оборудования по годам</t>

--- a/Indicators/Indicators_Process_B_7_5/files/record.xlsx
+++ b/Indicators/Indicators_Process_B_7_5/files/record.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
-    <t>Количество выпущенной продукции по годам в тоннах</t>
+    <t>Количество выпущенной п/б ленты по годам в тоннах</t>
   </si>
   <si>
     <t>Уровень неисправности оборудования по годам</t>
@@ -58,7 +58,7 @@
     <t>Уровень техотходов по полугодиям в %</t>
   </si>
   <si>
-    <t>Количество выпущенной продукции по полугодиям в тоннах</t>
+    <t>Количество выпущенной п/б ленты по полугодиям в тоннах</t>
   </si>
   <si>
     <t>Количество выпущенных муфт по полугодиям в шт.</t>
@@ -709,7 +709,7 @@
         <v>1.1</v>
       </c>
       <c r="P10">
-        <v>866.8810000000001</v>
+        <v>866.881</v>
       </c>
       <c r="U10">
         <v>0</v>
@@ -850,7 +850,7 @@
         <v>0.59</v>
       </c>
       <c r="P13">
-        <v>706.3810000000001</v>
+        <v>706.381</v>
       </c>
       <c r="U13">
         <v>0</v>
@@ -991,7 +991,7 @@
         <v>792.302</v>
       </c>
       <c r="I16">
-        <v>97.35700000000001</v>
+        <v>97.357</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0.84</v>
       </c>
       <c r="P16">
-        <v>681.2860000000001</v>
+        <v>681.2859999999999</v>
       </c>
       <c r="Q16">
         <v>3006</v>

--- a/Indicators/Indicators_Process_B_7_5/files/record.xlsx
+++ b/Indicators/Indicators_Process_B_7_5/files/record.xlsx
@@ -437,7 +437,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W17"/>
+  <dimension ref="A1:W18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1107,6 +1107,41 @@
         <v>0</v>
       </c>
     </row>
+    <row r="18" spans="1:23">
+      <c r="A18" s="1">
+        <v>2021</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0.3</v>
+      </c>
+      <c r="P18">
+        <v>762.942</v>
+      </c>
+      <c r="Q18">
+        <v>3863</v>
+      </c>
+      <c r="R18">
+        <v>3846</v>
+      </c>
+      <c r="S18">
+        <v>464.14</v>
+      </c>
+      <c r="T18">
+        <v>107.329</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
